--- a/public/Template-LAMVariation_Exemple.xlsx
+++ b/public/Template-LAMVariation_Exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacha\OneDrive\Bureau\Backuplundi26\interface_systeme_de_prod\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B846852-153F-41BB-9A57-1CD7883C6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1E0373-64B5-47DA-9CCF-D3407AAC6E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-870" windowWidth="29040" windowHeight="15720" xr2:uid="{82A4205F-91F6-4253-9463-F8570A786670}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TEMPLATE LIGNE D'ASSEMBLAGE MIXTE</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>(NOM PRODUIT 2)</t>
-  </si>
-  <si>
-    <t>(NOM PRODUIT 3)</t>
-  </si>
-  <si>
-    <t>(NOM PRODUIT 4)</t>
-  </si>
-  <si>
-    <t>(NOM PRODUIT 5)</t>
   </si>
   <si>
     <t>ID</t>
@@ -610,7 +601,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +632,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
         <v>5</v>
@@ -664,43 +655,37 @@
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -708,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8">
         <v>5</v>
@@ -729,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -748,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
@@ -761,7 +746,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
       <c r="J9" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -769,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8">
         <v>8</v>
@@ -790,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8">
         <v>6</v>
@@ -809,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>5</v>
@@ -822,7 +807,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -830,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
@@ -843,7 +828,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -851,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8">
         <v>9</v>
@@ -870,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>
